--- a/xtt_demo/ZXXT_DEMO_060_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_060_R.XLSX
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">shifts by columns and rows should be equal </t>
   </si>
@@ -46,6 +46,147 @@
   </si>
   <si>
     <t>R:</t>
+  </si>
+  <si>
+    <t>R:\REPORT</t>
+  </si>
+  <si>
+    <t>R:\REPORT\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\docProps</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\drawings</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\drawings\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\media</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\docProps</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\docProps</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\drawings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\drawings\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\media</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\gif</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\FormParameters</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\docProps</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\my</t>
+  </si>
+  <si>
+    <t>R:\my\_rels</t>
   </si>
   <si>
     <t>Title</t>
@@ -1089,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
@@ -1115,6 +1256,570 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s"/>
+    </row>
+    <row r="5" customHeight="1" ht="15" outlineLevel="1">
+      <c r="A5" t="s"/>
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A6" t="s"/>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="15" outlineLevel="1">
+      <c r="A7" t="s"/>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A8" t="s"/>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A9" t="s"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A10" t="s"/>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A11" t="s"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A12" t="s"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A13" t="s"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A14" t="s"/>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A15" t="s"/>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A16" t="s"/>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A17" t="s"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A18" t="s"/>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="15" outlineLevel="1">
+      <c r="A19" t="s"/>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A20" t="s"/>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A21" t="s"/>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A22" t="s"/>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A23" t="s"/>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A24" t="s"/>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A25" t="s"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A26" t="s"/>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A27" t="s"/>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="15" outlineLevel="1">
+      <c r="A28" t="s"/>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A29" t="s"/>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A30" t="s"/>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A31" t="s"/>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A32" t="s"/>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A33" t="s"/>
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A34" t="s"/>
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A35" t="s"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A36" t="s"/>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A37" t="s"/>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A38" t="s"/>
+      <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A39" t="s"/>
+      <c r="B39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A40" t="s"/>
+      <c r="B40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A41" t="s"/>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A42" t="s"/>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A43" t="s"/>
+      <c r="B43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A44" t="s"/>
+      <c r="B44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A45" t="s"/>
+      <c r="B45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A46" t="s"/>
+      <c r="B46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A47" t="s"/>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A48" t="s"/>
+      <c r="B48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A49" t="s"/>
+      <c r="B49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A50" t="s"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="5">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A51" t="s"/>
+      <c r="B51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="5">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1138,14 +1843,202 @@
     <col customWidth="1" max="1" min="1" width="58.28515625"/>
     <col customWidth="1" max="3" min="3" width="13.42578125"/>
     <col customWidth="1" max="4" min="4" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="6" min="6" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="8" min="8" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="9" min="9" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="10" min="10" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="11" min="11" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="12" min="12" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="13" min="13" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="14" min="14" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="15" min="15" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="16" min="16" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="24" min="24" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="26" min="26" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="1" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1165,6 +2058,53 @@
         <v>1</v>
       </c>
       <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s"/>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+      <c r="Z4" t="s"/>
+      <c r="AA4" t="s"/>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="s"/>
+      <c r="AG4" t="s"/>
+      <c r="AH4" t="s"/>
+      <c r="AI4" t="s"/>
+      <c r="AJ4" t="s"/>
+      <c r="AK4" t="s"/>
+      <c r="AL4" t="s"/>
+      <c r="AM4" t="s"/>
+      <c r="AN4" t="s"/>
+      <c r="AO4" t="s"/>
+      <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -1173,6 +2113,147 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
@@ -1180,6 +2261,147 @@
       </c>
       <c r="D6" s="4">
         <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2</v>
+      </c>
+      <c r="V6" s="4">
+        <v>3</v>
+      </c>
+      <c r="W6" s="4">
+        <v>3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1187,9 +2409,291 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s"/>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8">
       <c r="D8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1213,12 +2717,59 @@
     <col customWidth="1" max="1" min="1" width="58.28515625"/>
     <col customWidth="1" max="3" min="3" width="13.42578125"/>
     <col customWidth="1" max="4" min="4" width="13.42578125"/>
+    <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="6" min="6" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="8" min="8" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="9" min="9" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="10" min="10" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="11" min="11" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="12" min="12" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="13" min="13" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="14" min="14" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="15" min="15" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="16" min="16" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="24" min="24" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="26" min="26" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="3" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -1240,6 +2791,53 @@
         <v>1</v>
       </c>
       <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s"/>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+      <c r="Z4" t="s"/>
+      <c r="AA4" t="s"/>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="s"/>
+      <c r="AG4" t="s"/>
+      <c r="AH4" t="s"/>
+      <c r="AI4" t="s"/>
+      <c r="AJ4" t="s"/>
+      <c r="AK4" t="s"/>
+      <c r="AL4" t="s"/>
+      <c r="AM4" t="s"/>
+      <c r="AN4" t="s"/>
+      <c r="AO4" t="s"/>
+      <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -1248,6 +2846,147 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
@@ -1255,6 +2994,147 @@
       </c>
       <c r="D6" s="4">
         <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2</v>
+      </c>
+      <c r="V6" s="4">
+        <v>3</v>
+      </c>
+      <c r="W6" s="4">
+        <v>3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1262,6 +3142,147 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s"/>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8">
       <c r="D8" s="9"/>
@@ -1288,12 +3309,59 @@
     <col customWidth="1" max="1" min="1" width="58.28515625"/>
     <col customWidth="1" max="3" min="3" width="13.42578125"/>
     <col customWidth="1" max="4" min="4" width="13.42578125"/>
+    <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="6" min="6" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="8" min="8" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="9" min="9" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="10" min="10" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="11" min="11" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="12" min="12" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="13" min="13" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="14" min="14" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="15" min="15" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="16" min="16" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="24" min="24" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="26" min="26" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="3" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1311,6 +3379,53 @@
         <v>1</v>
       </c>
       <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s"/>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+      <c r="Z4" t="s"/>
+      <c r="AA4" t="s"/>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="s"/>
+      <c r="AG4" t="s"/>
+      <c r="AH4" t="s"/>
+      <c r="AI4" t="s"/>
+      <c r="AJ4" t="s"/>
+      <c r="AK4" t="s"/>
+      <c r="AL4" t="s"/>
+      <c r="AM4" t="s"/>
+      <c r="AN4" t="s"/>
+      <c r="AO4" t="s"/>
+      <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -1319,6 +3434,147 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
@@ -1326,6 +3582,147 @@
       </c>
       <c r="D6" s="4">
         <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2</v>
+      </c>
+      <c r="V6" s="4">
+        <v>3</v>
+      </c>
+      <c r="W6" s="4">
+        <v>3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1333,6 +3730,147 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s"/>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8">
       <c r="D8" s="9"/>
